--- a/medicine/Handicap/Sad_Love_Story/Sad_Love_Story.xlsx
+++ b/medicine/Handicap/Sad_Love_Story/Sad_Love_Story.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sad Love Story (hangeul : 슬픈 연가 ; RR: Seulpeun Yeon-ga, connu aussi sous le nom de Sad Love Song ou de Sad Sonata), est une série télévisée sud-coréenne en 20 épisodes. La série est diffusée à partir du 5 janvier 2005 sur MBC en Corée du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Seo Joon-young est le fils de Seo Hyang-ja, une prostituée vendant de l'alcool aux soldats américains rencontre Park Hye-in, une petite fille aveugle et très intelligente. Ils deviennent de plus en plus proches jusqu'au jour où Park Hye-in se sépare de Seo Joon-young pour partir aux États-Unis avec sa tante et son oncle pour faire son opération des yeux. Elle rencontre Lee Gun-woo, fils d'un riche entrepreneur et qui d'ailleurs le meilleur ami de Seo Joon-young...
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Famille de Choi Joon-kyu / Seo Joon-young
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Famille de Choi Joon-kyu / Seo Joon-young
 Kwon Sang-woo : Seo Joon-young / Choi Joon-kyu
 Yoo Seung-ho : Seo Joon-young jeune / fils de Seo Joon-young
 Na Young-hee : Seo Hyang-ja, sa mère
@@ -563,9 +582,43 @@
 Kim Yeon-joo : Cha Hwa-jung
 Ko Ah-seong : Cha Hwa-jung jeune
 Lee Mi-young : Hwang Min-kyung, sa mère
-Kang Nam-gil : Père de Cha Hwa-jung
-Acteurs récurrents
-Jung Woo : Lee Min-ho
+Kang Nam-gil : Père de Cha Hwa-jung</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sad_Love_Story</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sad_Love_Story</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jung Woo : Lee Min-ho
 MC Mong : Jang Jin-pyo
 Lee Hyun-woo : Jang-ho
 Lee Da-hee : Kang Shin-hee
@@ -578,42 +631,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sad_Love_Story</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sad_Love_Story</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Casting
-L'acteur Song Seung-heon avait été déjà choisi pour le rôle de Lee Gun-woo. Il avait déjà tourné dans plusieurs scènes à l'étranger
-et enregistré des chansons pour la bande originale de la série. Il a été contraint d'abandonner la série quand un scandale a éclaté disant qu'il a esquivé son service militaire obligatoire. Yeon Jung-hoon a finalement été choisi pour le remplacer[1].
-Diffusion internationale
- MBC : Mercredi et jeudi à 21h55 (2005)
- Fuji TV : Août 2005
- Dubai TV (2007)</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -635,10 +652,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acteur Song Seung-heon avait été déjà choisi pour le rôle de Lee Gun-woo. Il avait déjà tourné dans plusieurs scènes à l'étranger
+et enregistré des chansons pour la bande originale de la série. Il a été contraint d'abandonner la série quand un scandale a éclaté disant qu'il a esquivé son service militaire obligatoire. Yeon Jung-hoon a finalement été choisi pour le remplacer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sad_Love_Story</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sad_Love_Story</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diffusion internationale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MBC : Mercredi et jeudi à 21h55 (2005)
+ Fuji TV : Août 2005
+ Dubai TV (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sad_Love_Story</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sad_Love_Story</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La série a été adaptée en manhwa par les manhwaga Geo (alias Jung Min-Hwa) et Shin Ji-Sang en  2005,et publié chez Daiwon C.I. Celui-ci est composé de 22 chapitres regroupés en 5 volumes. 
 Ce Manhwa a pour titre original 슬픈연가 mais est 
